--- a/Luft.xlsx
+++ b/Luft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlvi2\OneDrive\Desktop\Physik\Fortgeschr. Praktikum\V64---Moderne-Interferometrie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1257958-D062-477B-92C7-67CE2B4FB82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DBC88-E496-4F11-86B9-73DCA1CBF799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{1DBE1CFA-72B4-4A8C-A52C-1C7F32CC3826}"/>
+    <workbookView xWindow="13365" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{1DBE1CFA-72B4-4A8C-A52C-1C7F32CC3826}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCEB5EC-B9EA-42B3-878C-20EF452C0BD1}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -856,11 +858,11 @@
         <v>36</v>
       </c>
       <c r="F18">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>34.4</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
